--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ046Log.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ046Log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE40FAA-A1A9-424E-9176-E794D23A2E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="6816"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -232,10 +233,6 @@
   </si>
   <si>
     <t>OutJcicTxtDate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>A:新增C:異動D:刪除</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -325,11 +322,17 @@
 99:依債務清償方案履行完畢</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="12"/>
@@ -583,28 +586,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -695,6 +698,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -730,6 +750,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -905,11 +942,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -924,12 +961,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>29</v>
@@ -939,8 +976,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
@@ -952,25 +989,25 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
@@ -978,10 +1015,10 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="18"/>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
@@ -989,10 +1026,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="18"/>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1000,10 +1037,10 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="18"/>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -1011,10 +1048,10 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="18"/>
       <c r="D8" s="16"/>
       <c r="E8" s="14"/>
@@ -1049,10 +1086,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>44</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>19</v>
@@ -1068,10 +1105,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>19</v>
@@ -1082,7 +1119,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:10" s="7" customFormat="1">
+    <row r="12" spans="1:10" s="7" customFormat="1" ht="48.6">
       <c r="A12" s="18">
         <v>3</v>
       </c>
@@ -1100,7 +1137,7 @@
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="18" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -1124,21 +1161,21 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10" s="28" customFormat="1" ht="356.4">
+    <row r="14" spans="1:10" s="26" customFormat="1" ht="356.4">
       <c r="A14" s="18">
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>19</v>
@@ -1147,12 +1184,12 @@
         <v>2</v>
       </c>
       <c r="F14" s="21"/>
-      <c r="G14" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
+      <c r="G14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="18">
@@ -1878,7 +1915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1907,24 +1944,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
